--- a/scripts/data/resultados/top10_impo_bk.xlsx
+++ b/scripts/data/resultados/top10_impo_bk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="1065">
   <si>
     <t>hs6_d12</t>
   </si>
@@ -3149,6 +3149,9 @@
   </si>
   <si>
     <t>Maquinaria de oficina</t>
+  </si>
+  <si>
+    <t>Maquinaria n.c.p.</t>
   </si>
   <si>
     <t>Maquinaria y equipo</t>
@@ -14121,7 +14124,7 @@
         <v>950</v>
       </c>
       <c r="K302" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -14156,7 +14159,7 @@
         <v>951</v>
       </c>
       <c r="K303" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -14191,7 +14194,7 @@
         <v>952</v>
       </c>
       <c r="K304" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -14226,7 +14229,7 @@
         <v>953</v>
       </c>
       <c r="K305" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -14261,7 +14264,7 @@
         <v>954</v>
       </c>
       <c r="K306" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -14296,7 +14299,7 @@
         <v>892</v>
       </c>
       <c r="K307" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -14331,7 +14334,7 @@
         <v>955</v>
       </c>
       <c r="K308" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -14366,7 +14369,7 @@
         <v>956</v>
       </c>
       <c r="K309" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -14401,7 +14404,7 @@
         <v>828</v>
       </c>
       <c r="K310" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -14436,7 +14439,7 @@
         <v>951</v>
       </c>
       <c r="K311" t="s">
-        <v>410</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -14471,7 +14474,7 @@
         <v>916</v>
       </c>
       <c r="K312" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -14506,7 +14509,7 @@
         <v>936</v>
       </c>
       <c r="K313" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -14541,7 +14544,7 @@
         <v>872</v>
       </c>
       <c r="K314" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -14576,7 +14579,7 @@
         <v>800</v>
       </c>
       <c r="K315" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -14611,7 +14614,7 @@
         <v>802</v>
       </c>
       <c r="K316" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -14646,7 +14649,7 @@
         <v>802</v>
       </c>
       <c r="K317" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -14681,7 +14684,7 @@
         <v>937</v>
       </c>
       <c r="K318" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -14716,7 +14719,7 @@
         <v>938</v>
       </c>
       <c r="K319" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -14751,7 +14754,7 @@
         <v>898</v>
       </c>
       <c r="K320" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -14786,7 +14789,7 @@
         <v>800</v>
       </c>
       <c r="K321" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -14821,7 +14824,7 @@
         <v>853</v>
       </c>
       <c r="K322" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -14856,7 +14859,7 @@
         <v>853</v>
       </c>
       <c r="K323" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -14891,7 +14894,7 @@
         <v>808</v>
       </c>
       <c r="K324" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -14926,7 +14929,7 @@
         <v>957</v>
       </c>
       <c r="K325" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -14961,7 +14964,7 @@
         <v>958</v>
       </c>
       <c r="K326" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -14996,7 +14999,7 @@
         <v>802</v>
       </c>
       <c r="K327" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -15031,7 +15034,7 @@
         <v>959</v>
       </c>
       <c r="K328" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -15066,7 +15069,7 @@
         <v>960</v>
       </c>
       <c r="K329" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -15101,7 +15104,7 @@
         <v>853</v>
       </c>
       <c r="K330" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -15136,7 +15139,7 @@
         <v>961</v>
       </c>
       <c r="K331" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -15171,7 +15174,7 @@
         <v>962</v>
       </c>
       <c r="K332" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -15206,7 +15209,7 @@
         <v>808</v>
       </c>
       <c r="K333" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -15241,7 +15244,7 @@
         <v>802</v>
       </c>
       <c r="K334" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -15276,7 +15279,7 @@
         <v>815</v>
       </c>
       <c r="K335" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -15311,7 +15314,7 @@
         <v>963</v>
       </c>
       <c r="K336" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -15346,7 +15349,7 @@
         <v>964</v>
       </c>
       <c r="K337" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -15381,7 +15384,7 @@
         <v>965</v>
       </c>
       <c r="K338" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -15416,7 +15419,7 @@
         <v>808</v>
       </c>
       <c r="K339" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -15451,7 +15454,7 @@
         <v>966</v>
       </c>
       <c r="K340" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -15486,7 +15489,7 @@
         <v>811</v>
       </c>
       <c r="K341" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -15521,7 +15524,7 @@
         <v>802</v>
       </c>
       <c r="K342" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -15556,7 +15559,7 @@
         <v>967</v>
       </c>
       <c r="K343" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -15591,7 +15594,7 @@
         <v>802</v>
       </c>
       <c r="K344" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -15626,7 +15629,7 @@
         <v>968</v>
       </c>
       <c r="K345" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -15661,7 +15664,7 @@
         <v>800</v>
       </c>
       <c r="K346" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -15696,7 +15699,7 @@
         <v>802</v>
       </c>
       <c r="K347" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -15731,7 +15734,7 @@
         <v>808</v>
       </c>
       <c r="K348" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -15766,7 +15769,7 @@
         <v>969</v>
       </c>
       <c r="K349" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -15801,7 +15804,7 @@
         <v>970</v>
       </c>
       <c r="K350" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -15836,7 +15839,7 @@
         <v>971</v>
       </c>
       <c r="K351" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -15871,7 +15874,7 @@
         <v>927</v>
       </c>
       <c r="K352" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -15906,7 +15909,7 @@
         <v>972</v>
       </c>
       <c r="K353" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -15941,7 +15944,7 @@
         <v>853</v>
       </c>
       <c r="K354" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -15976,7 +15979,7 @@
         <v>973</v>
       </c>
       <c r="K355" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -16011,7 +16014,7 @@
         <v>806</v>
       </c>
       <c r="K356" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -16046,7 +16049,7 @@
         <v>951</v>
       </c>
       <c r="K357" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -16081,7 +16084,7 @@
         <v>853</v>
       </c>
       <c r="K358" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -16116,7 +16119,7 @@
         <v>853</v>
       </c>
       <c r="K359" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -16151,7 +16154,7 @@
         <v>808</v>
       </c>
       <c r="K360" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -16186,7 +16189,7 @@
         <v>853</v>
       </c>
       <c r="K361" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -16221,7 +16224,7 @@
         <v>828</v>
       </c>
       <c r="K362" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -16250,7 +16253,7 @@
         <v>0.03329308712818163</v>
       </c>
       <c r="K363" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -16285,7 +16288,7 @@
         <v>808</v>
       </c>
       <c r="K364" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -16320,7 +16323,7 @@
         <v>908</v>
       </c>
       <c r="K365" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -16355,7 +16358,7 @@
         <v>808</v>
       </c>
       <c r="K366" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -16390,7 +16393,7 @@
         <v>802</v>
       </c>
       <c r="K367" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -16425,7 +16428,7 @@
         <v>974</v>
       </c>
       <c r="K368" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -16460,7 +16463,7 @@
         <v>828</v>
       </c>
       <c r="K369" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -16495,7 +16498,7 @@
         <v>830</v>
       </c>
       <c r="K370" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -16530,7 +16533,7 @@
         <v>975</v>
       </c>
       <c r="K371" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -16565,7 +16568,7 @@
         <v>976</v>
       </c>
       <c r="K372" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -16600,7 +16603,7 @@
         <v>828</v>
       </c>
       <c r="K373" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -16635,7 +16638,7 @@
         <v>802</v>
       </c>
       <c r="K374" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -16670,7 +16673,7 @@
         <v>977</v>
       </c>
       <c r="K375" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -16705,7 +16708,7 @@
         <v>808</v>
       </c>
       <c r="K376" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -16740,7 +16743,7 @@
         <v>828</v>
       </c>
       <c r="K377" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -16775,7 +16778,7 @@
         <v>828</v>
       </c>
       <c r="K378" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -16810,7 +16813,7 @@
         <v>828</v>
       </c>
       <c r="K379" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -16845,7 +16848,7 @@
         <v>978</v>
       </c>
       <c r="K380" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -16880,7 +16883,7 @@
         <v>802</v>
       </c>
       <c r="K381" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -16915,7 +16918,7 @@
         <v>800</v>
       </c>
       <c r="K382" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -16950,7 +16953,7 @@
         <v>952</v>
       </c>
       <c r="K383" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -16985,7 +16988,7 @@
         <v>802</v>
       </c>
       <c r="K384" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -17020,7 +17023,7 @@
         <v>979</v>
       </c>
       <c r="K385" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -17055,7 +17058,7 @@
         <v>802</v>
       </c>
       <c r="K386" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -17090,7 +17093,7 @@
         <v>980</v>
       </c>
       <c r="K387" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -17125,7 +17128,7 @@
         <v>802</v>
       </c>
       <c r="K388" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -17160,7 +17163,7 @@
         <v>864</v>
       </c>
       <c r="K389" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -17195,7 +17198,7 @@
         <v>981</v>
       </c>
       <c r="K390" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -17230,7 +17233,7 @@
         <v>982</v>
       </c>
       <c r="K391" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -17265,7 +17268,7 @@
         <v>802</v>
       </c>
       <c r="K392" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -17300,7 +17303,7 @@
         <v>983</v>
       </c>
       <c r="K393" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -17335,7 +17338,7 @@
         <v>802</v>
       </c>
       <c r="K394" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -17370,7 +17373,7 @@
         <v>984</v>
       </c>
       <c r="K395" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -17405,7 +17408,7 @@
         <v>800</v>
       </c>
       <c r="K396" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -17440,7 +17443,7 @@
         <v>985</v>
       </c>
       <c r="K397" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -17475,7 +17478,7 @@
         <v>802</v>
       </c>
       <c r="K398" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -17510,7 +17513,7 @@
         <v>986</v>
       </c>
       <c r="K399" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -17545,7 +17548,7 @@
         <v>987</v>
       </c>
       <c r="K400" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -17580,7 +17583,7 @@
         <v>802</v>
       </c>
       <c r="K401" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -17615,7 +17618,7 @@
         <v>871</v>
       </c>
       <c r="K402" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -17650,7 +17653,7 @@
         <v>802</v>
       </c>
       <c r="K403" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -17685,7 +17688,7 @@
         <v>853</v>
       </c>
       <c r="K404" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -17720,7 +17723,7 @@
         <v>988</v>
       </c>
       <c r="K405" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -17755,7 +17758,7 @@
         <v>802</v>
       </c>
       <c r="K406" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -17790,7 +17793,7 @@
         <v>808</v>
       </c>
       <c r="K407" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -17825,7 +17828,7 @@
         <v>802</v>
       </c>
       <c r="K408" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -17860,7 +17863,7 @@
         <v>989</v>
       </c>
       <c r="K409" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -17895,7 +17898,7 @@
         <v>828</v>
       </c>
       <c r="K410" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -17930,7 +17933,7 @@
         <v>990</v>
       </c>
       <c r="K411" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -17965,7 +17968,7 @@
         <v>927</v>
       </c>
       <c r="K412" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -18000,7 +18003,7 @@
         <v>991</v>
       </c>
       <c r="K413" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -18035,7 +18038,7 @@
         <v>992</v>
       </c>
       <c r="K414" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -18070,7 +18073,7 @@
         <v>900</v>
       </c>
       <c r="K415" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -18105,7 +18108,7 @@
         <v>820</v>
       </c>
       <c r="K416" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -18140,7 +18143,7 @@
         <v>828</v>
       </c>
       <c r="K417" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -18175,7 +18178,7 @@
         <v>900</v>
       </c>
       <c r="K418" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -18210,7 +18213,7 @@
         <v>898</v>
       </c>
       <c r="K419" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -18245,7 +18248,7 @@
         <v>800</v>
       </c>
       <c r="K420" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -18280,7 +18283,7 @@
         <v>993</v>
       </c>
       <c r="K421" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -18315,7 +18318,7 @@
         <v>994</v>
       </c>
       <c r="K422" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -18350,7 +18353,7 @@
         <v>995</v>
       </c>
       <c r="K423" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -18385,7 +18388,7 @@
         <v>800</v>
       </c>
       <c r="K424" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -18420,7 +18423,7 @@
         <v>957</v>
       </c>
       <c r="K425" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -18455,7 +18458,7 @@
         <v>800</v>
       </c>
       <c r="K426" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -18490,7 +18493,7 @@
         <v>905</v>
       </c>
       <c r="K427" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -18525,7 +18528,7 @@
         <v>900</v>
       </c>
       <c r="K428" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -18560,7 +18563,7 @@
         <v>800</v>
       </c>
       <c r="K429" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -18595,7 +18598,7 @@
         <v>996</v>
       </c>
       <c r="K430" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -18630,7 +18633,7 @@
         <v>997</v>
       </c>
       <c r="K431" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -18665,7 +18668,7 @@
         <v>998</v>
       </c>
       <c r="K432" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -18700,7 +18703,7 @@
         <v>999</v>
       </c>
       <c r="K433" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -18735,7 +18738,7 @@
         <v>905</v>
       </c>
       <c r="K434" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -18770,7 +18773,7 @@
         <v>999</v>
       </c>
       <c r="K435" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -18805,7 +18808,7 @@
         <v>1000</v>
       </c>
       <c r="K436" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -18840,7 +18843,7 @@
         <v>800</v>
       </c>
       <c r="K437" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -18875,7 +18878,7 @@
         <v>800</v>
       </c>
       <c r="K438" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -18910,7 +18913,7 @@
         <v>1001</v>
       </c>
       <c r="K439" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -18945,7 +18948,7 @@
         <v>853</v>
       </c>
       <c r="K440" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -18980,7 +18983,7 @@
         <v>1002</v>
       </c>
       <c r="K441" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -19015,7 +19018,7 @@
         <v>832</v>
       </c>
       <c r="K442" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -19050,7 +19053,7 @@
         <v>1003</v>
       </c>
       <c r="K443" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -19085,7 +19088,7 @@
         <v>844</v>
       </c>
       <c r="K444" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -19120,7 +19123,7 @@
         <v>800</v>
       </c>
       <c r="K445" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -19155,7 +19158,7 @@
         <v>1004</v>
       </c>
       <c r="K446" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -19190,7 +19193,7 @@
         <v>802</v>
       </c>
       <c r="K447" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -19225,7 +19228,7 @@
         <v>916</v>
       </c>
       <c r="K448" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -19260,7 +19263,7 @@
         <v>840</v>
       </c>
       <c r="K449" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -19295,7 +19298,7 @@
         <v>820</v>
       </c>
       <c r="K450" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -19330,7 +19333,7 @@
         <v>853</v>
       </c>
       <c r="K451" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -19365,7 +19368,7 @@
         <v>1005</v>
       </c>
       <c r="K452" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -19400,7 +19403,7 @@
         <v>802</v>
       </c>
       <c r="K453" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -19435,7 +19438,7 @@
         <v>800</v>
       </c>
       <c r="K454" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -19470,7 +19473,7 @@
         <v>802</v>
       </c>
       <c r="K455" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -19505,7 +19508,7 @@
         <v>800</v>
       </c>
       <c r="K456" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -19540,7 +19543,7 @@
         <v>802</v>
       </c>
       <c r="K457" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -19569,7 +19572,7 @@
         <v>0.02823664986776903</v>
       </c>
       <c r="K458" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -19604,7 +19607,7 @@
         <v>802</v>
       </c>
       <c r="K459" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -19639,7 +19642,7 @@
         <v>872</v>
       </c>
       <c r="K460" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -19674,7 +19677,7 @@
         <v>800</v>
       </c>
       <c r="K461" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -19709,7 +19712,7 @@
         <v>820</v>
       </c>
       <c r="K462" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -19744,7 +19747,7 @@
         <v>977</v>
       </c>
       <c r="K463" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -19779,7 +19782,7 @@
         <v>828</v>
       </c>
       <c r="K464" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -19814,7 +19817,7 @@
         <v>814</v>
       </c>
       <c r="K465" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -19849,7 +19852,7 @@
         <v>901</v>
       </c>
       <c r="K466" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -19884,7 +19887,7 @@
         <v>808</v>
       </c>
       <c r="K467" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -19919,7 +19922,7 @@
         <v>1006</v>
       </c>
       <c r="K468" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -19954,7 +19957,7 @@
         <v>808</v>
       </c>
       <c r="K469" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -19989,7 +19992,7 @@
         <v>814</v>
       </c>
       <c r="K470" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -20024,7 +20027,7 @@
         <v>800</v>
       </c>
       <c r="K471" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -20059,7 +20062,7 @@
         <v>800</v>
       </c>
       <c r="K472" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -20094,7 +20097,7 @@
         <v>800</v>
       </c>
       <c r="K473" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -20129,7 +20132,7 @@
         <v>808</v>
       </c>
       <c r="K474" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -20164,7 +20167,7 @@
         <v>1007</v>
       </c>
       <c r="K475" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -20199,7 +20202,7 @@
         <v>800</v>
       </c>
       <c r="K476" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -20234,7 +20237,7 @@
         <v>800</v>
       </c>
       <c r="K477" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -20269,7 +20272,7 @@
         <v>802</v>
       </c>
       <c r="K478" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -20304,7 +20307,7 @@
         <v>802</v>
       </c>
       <c r="K479" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -20339,7 +20342,7 @@
         <v>853</v>
       </c>
       <c r="K480" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -20374,7 +20377,7 @@
         <v>802</v>
       </c>
       <c r="K481" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -20409,7 +20412,7 @@
         <v>1008</v>
       </c>
       <c r="K482" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -20444,7 +20447,7 @@
         <v>857</v>
       </c>
       <c r="K483" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -20479,7 +20482,7 @@
         <v>943</v>
       </c>
       <c r="K484" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="485" spans="1:11">
@@ -20514,7 +20517,7 @@
         <v>1009</v>
       </c>
       <c r="K485" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -20549,7 +20552,7 @@
         <v>850</v>
       </c>
       <c r="K486" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -20584,7 +20587,7 @@
         <v>916</v>
       </c>
       <c r="K487" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -20619,7 +20622,7 @@
         <v>802</v>
       </c>
       <c r="K488" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -20654,7 +20657,7 @@
         <v>808</v>
       </c>
       <c r="K489" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -20689,7 +20692,7 @@
         <v>800</v>
       </c>
       <c r="K490" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -20724,7 +20727,7 @@
         <v>811</v>
       </c>
       <c r="K491" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -20759,7 +20762,7 @@
         <v>808</v>
       </c>
       <c r="K492" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -20794,7 +20797,7 @@
         <v>1010</v>
       </c>
       <c r="K493" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -20829,7 +20832,7 @@
         <v>1011</v>
       </c>
       <c r="K494" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -20864,7 +20867,7 @@
         <v>800</v>
       </c>
       <c r="K495" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -20899,7 +20902,7 @@
         <v>880</v>
       </c>
       <c r="K496" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -20934,7 +20937,7 @@
         <v>800</v>
       </c>
       <c r="K497" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -20969,7 +20972,7 @@
         <v>1012</v>
       </c>
       <c r="K498" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -21004,7 +21007,7 @@
         <v>1013</v>
       </c>
       <c r="K499" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -21039,7 +21042,7 @@
         <v>1014</v>
       </c>
       <c r="K500" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -21074,7 +21077,7 @@
         <v>800</v>
       </c>
       <c r="K501" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/resultados/top10_impo_bk.xlsx
+++ b/scripts/data/resultados/top10_impo_bk.xlsx
@@ -3859,7 +3859,7 @@
         <v>391</v>
       </c>
       <c r="D7">
-        <v>1.417876843631934</v>
+        <v>1.417876843631932</v>
       </c>
       <c r="E7">
         <v>847940</v>
@@ -3874,7 +3874,7 @@
         <v>391</v>
       </c>
       <c r="I7">
-        <v>1.05228240806941E-07</v>
+        <v>1.052282408069409E-07</v>
       </c>
       <c r="J7" t="s">
         <v>826</v>
@@ -3894,7 +3894,7 @@
         <v>391</v>
       </c>
       <c r="D8">
-        <v>0.9511403504427881</v>
+        <v>0.9511403504427826</v>
       </c>
       <c r="E8">
         <v>846592</v>
@@ -3909,7 +3909,7 @@
         <v>391</v>
       </c>
       <c r="I8">
-        <v>7.058922380114238E-08</v>
+        <v>7.058922380114197E-08</v>
       </c>
       <c r="J8" t="s">
         <v>827</v>
@@ -3929,7 +3929,7 @@
         <v>391</v>
       </c>
       <c r="D9">
-        <v>0.4097351158406359</v>
+        <v>0.4097351158406357</v>
       </c>
       <c r="E9">
         <v>844590</v>
@@ -3944,7 +3944,7 @@
         <v>391</v>
       </c>
       <c r="I9">
-        <v>3.040863924845272E-08</v>
+        <v>3.040863924845271E-08</v>
       </c>
       <c r="J9" t="s">
         <v>828</v>
@@ -3964,7 +3964,7 @@
         <v>391</v>
       </c>
       <c r="D10">
-        <v>0.1477522136422375</v>
+        <v>0.1477522136422351</v>
       </c>
       <c r="E10">
         <v>841311</v>
@@ -3979,7 +3979,7 @@
         <v>391</v>
       </c>
       <c r="I10">
-        <v>1.096548377014047E-08</v>
+        <v>1.096548377014028E-08</v>
       </c>
       <c r="J10" t="s">
         <v>829</v>
@@ -3999,7 +3999,7 @@
         <v>391</v>
       </c>
       <c r="D11">
-        <v>0.03407245823739057</v>
+        <v>0.03407245823738927</v>
       </c>
       <c r="E11">
         <v>847940</v>
@@ -4014,7 +4014,7 @@
         <v>391</v>
       </c>
       <c r="I11">
-        <v>2.528699764293001E-09</v>
+        <v>2.528699764292904E-09</v>
       </c>
       <c r="J11" t="s">
         <v>830</v>
@@ -4034,7 +4034,7 @@
         <v>392</v>
       </c>
       <c r="D12">
-        <v>7571077.654267172</v>
+        <v>7571077.654267173</v>
       </c>
       <c r="E12">
         <v>950430</v>
@@ -4049,7 +4049,7 @@
         <v>392</v>
       </c>
       <c r="I12">
-        <v>0.07710610254186338</v>
+        <v>0.0771061025418634</v>
       </c>
       <c r="J12" t="s">
         <v>831</v>
@@ -4874,7 +4874,7 @@
         <v>394</v>
       </c>
       <c r="D36">
-        <v>408056.5992813319</v>
+        <v>408056.599281332</v>
       </c>
       <c r="E36">
         <v>901180</v>
@@ -6872,7 +6872,7 @@
         <v>400</v>
       </c>
       <c r="I93">
-        <v>0.09073203606084951</v>
+        <v>0.09073203606084954</v>
       </c>
       <c r="J93" t="s">
         <v>866</v>
@@ -6907,7 +6907,7 @@
         <v>400</v>
       </c>
       <c r="I94">
-        <v>0.08773051397840159</v>
+        <v>0.08773051397840161</v>
       </c>
       <c r="J94" t="s">
         <v>866</v>
@@ -6942,7 +6942,7 @@
         <v>400</v>
       </c>
       <c r="I95">
-        <v>0.06737944737814316</v>
+        <v>0.06737944737814318</v>
       </c>
       <c r="J95" t="s">
         <v>881</v>
@@ -6977,7 +6977,7 @@
         <v>400</v>
       </c>
       <c r="I96">
-        <v>0.05710012804221284</v>
+        <v>0.05710012804221286</v>
       </c>
       <c r="J96" t="s">
         <v>824</v>
@@ -7012,7 +7012,7 @@
         <v>400</v>
       </c>
       <c r="I97">
-        <v>0.0516964980897372</v>
+        <v>0.05169649808973722</v>
       </c>
       <c r="J97" t="s">
         <v>824</v>
@@ -7047,7 +7047,7 @@
         <v>400</v>
       </c>
       <c r="I98">
-        <v>0.03361835385176745</v>
+        <v>0.03361835385176746</v>
       </c>
       <c r="J98" t="s">
         <v>882</v>
@@ -7082,7 +7082,7 @@
         <v>400</v>
       </c>
       <c r="I99">
-        <v>0.02605504256990202</v>
+        <v>0.02605504256990203</v>
       </c>
       <c r="J99" t="s">
         <v>883</v>
@@ -7732,7 +7732,7 @@
         <v>402</v>
       </c>
       <c r="D118">
-        <v>5890974.342702502</v>
+        <v>5890974.342702503</v>
       </c>
       <c r="E118">
         <v>847432</v>
@@ -8231,7 +8231,7 @@
         <v>545</v>
       </c>
       <c r="G132">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H132" t="s">
         <v>404</v>
@@ -8266,13 +8266,13 @@
         <v>546</v>
       </c>
       <c r="G133">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H133" t="s">
         <v>404</v>
       </c>
       <c r="I133">
-        <v>0.1976301394413954</v>
+        <v>0.1976301394413953</v>
       </c>
       <c r="J133" t="s">
         <v>896</v>
@@ -8301,13 +8301,13 @@
         <v>511</v>
       </c>
       <c r="G134">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H134" t="s">
         <v>404</v>
       </c>
       <c r="I134">
-        <v>0.06290674689222744</v>
+        <v>0.06290674689222743</v>
       </c>
       <c r="J134" t="s">
         <v>871</v>
@@ -8336,13 +8336,13 @@
         <v>484</v>
       </c>
       <c r="G135">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H135" t="s">
         <v>404</v>
       </c>
       <c r="I135">
-        <v>0.06214449223740866</v>
+        <v>0.06214449223740865</v>
       </c>
       <c r="J135" t="s">
         <v>831</v>
@@ -8371,7 +8371,7 @@
         <v>547</v>
       </c>
       <c r="G136">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H136" t="s">
         <v>404</v>
@@ -8406,13 +8406,13 @@
         <v>548</v>
       </c>
       <c r="G137">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H137" t="s">
         <v>404</v>
       </c>
       <c r="I137">
-        <v>0.0488259364079391</v>
+        <v>0.04882593640793909</v>
       </c>
       <c r="J137" t="s">
         <v>898</v>
@@ -8441,13 +8441,13 @@
         <v>479</v>
       </c>
       <c r="G138">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H138" t="s">
         <v>404</v>
       </c>
       <c r="I138">
-        <v>0.04626797885581991</v>
+        <v>0.0462679788558199</v>
       </c>
       <c r="J138" t="s">
         <v>850</v>
@@ -8476,7 +8476,7 @@
         <v>460</v>
       </c>
       <c r="G139">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H139" t="s">
         <v>404</v>
@@ -8511,13 +8511,13 @@
         <v>549</v>
       </c>
       <c r="G140">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H140" t="s">
         <v>404</v>
       </c>
       <c r="I140">
-        <v>0.01611490020779932</v>
+        <v>0.01611490020779931</v>
       </c>
       <c r="J140" t="s">
         <v>875</v>
@@ -8537,7 +8537,7 @@
         <v>404</v>
       </c>
       <c r="D141">
-        <v>6296700.038898821</v>
+        <v>6296700.03889882</v>
       </c>
       <c r="E141">
         <v>842951</v>
@@ -8546,13 +8546,13 @@
         <v>550</v>
       </c>
       <c r="G141">
-        <v>455500960.7824069</v>
+        <v>455500960.782407</v>
       </c>
       <c r="H141" t="s">
         <v>404</v>
       </c>
       <c r="I141">
-        <v>0.01382368113578307</v>
+        <v>0.01382368113578306</v>
       </c>
       <c r="J141" t="s">
         <v>860</v>
@@ -8712,7 +8712,7 @@
         <v>405</v>
       </c>
       <c r="D146">
-        <v>16745829.35212046</v>
+        <v>16745829.35212047</v>
       </c>
       <c r="E146">
         <v>880212</v>
@@ -8817,7 +8817,7 @@
         <v>405</v>
       </c>
       <c r="D149">
-        <v>755057.5556829936</v>
+        <v>755057.5556829937</v>
       </c>
       <c r="E149">
         <v>852869</v>
@@ -8832,7 +8832,7 @@
         <v>405</v>
       </c>
       <c r="I149">
-        <v>0.0005569603470705377</v>
+        <v>0.0005569603470705378</v>
       </c>
       <c r="J149" t="s">
         <v>849</v>
@@ -9482,7 +9482,7 @@
         <v>407</v>
       </c>
       <c r="D168">
-        <v>30763962.29995725</v>
+        <v>30763962.29995724</v>
       </c>
       <c r="E168">
         <v>870422</v>
@@ -9497,7 +9497,7 @@
         <v>407</v>
       </c>
       <c r="I168">
-        <v>0.01923410910853055</v>
+        <v>0.01923410910853054</v>
       </c>
       <c r="J168" t="s">
         <v>864</v>
@@ -9517,7 +9517,7 @@
         <v>407</v>
       </c>
       <c r="D169">
-        <v>23992404.58940724</v>
+        <v>23992404.58940723</v>
       </c>
       <c r="E169">
         <v>870510</v>
@@ -9637,7 +9637,7 @@
         <v>408</v>
       </c>
       <c r="I172">
-        <v>0.05652878950549887</v>
+        <v>0.05652878950549885</v>
       </c>
       <c r="J172" t="s">
         <v>825</v>
@@ -9672,7 +9672,7 @@
         <v>408</v>
       </c>
       <c r="I173">
-        <v>0.03854642999661752</v>
+        <v>0.03854642999661751</v>
       </c>
       <c r="J173" t="s">
         <v>909</v>
@@ -9742,7 +9742,7 @@
         <v>408</v>
       </c>
       <c r="I175">
-        <v>0.03165060182444241</v>
+        <v>0.0316506018244424</v>
       </c>
       <c r="J175" t="s">
         <v>910</v>
@@ -9777,7 +9777,7 @@
         <v>408</v>
       </c>
       <c r="I176">
-        <v>0.0228051960032703</v>
+        <v>0.02280519600327029</v>
       </c>
       <c r="J176" t="s">
         <v>911</v>
@@ -9882,7 +9882,7 @@
         <v>408</v>
       </c>
       <c r="I179">
-        <v>0.01104023544584875</v>
+        <v>0.01104023544584874</v>
       </c>
       <c r="J179" t="s">
         <v>913</v>
@@ -9917,7 +9917,7 @@
         <v>408</v>
       </c>
       <c r="I180">
-        <v>0.008843078088540417</v>
+        <v>0.008843078088540415</v>
       </c>
       <c r="J180" t="s">
         <v>831</v>
@@ -9952,7 +9952,7 @@
         <v>408</v>
       </c>
       <c r="I181">
-        <v>0.008405757064888329</v>
+        <v>0.008405757064888327</v>
       </c>
       <c r="J181" t="s">
         <v>914</v>
@@ -10182,7 +10182,7 @@
         <v>409</v>
       </c>
       <c r="D188">
-        <v>7800.003148370221</v>
+        <v>7800.00314837022</v>
       </c>
       <c r="E188">
         <v>847989</v>
@@ -10197,7 +10197,7 @@
         <v>409</v>
       </c>
       <c r="I188">
-        <v>0.000429545769026909</v>
+        <v>0.0004295457690269089</v>
       </c>
       <c r="J188" t="s">
         <v>919</v>
@@ -10252,7 +10252,7 @@
         <v>409</v>
       </c>
       <c r="D190">
-        <v>4964.125436086863</v>
+        <v>4964.125436086864</v>
       </c>
       <c r="E190">
         <v>392329</v>
@@ -10267,7 +10267,7 @@
         <v>409</v>
       </c>
       <c r="I190">
-        <v>0.0002733741304239744</v>
+        <v>0.0002733741304239745</v>
       </c>
       <c r="J190" t="s">
         <v>849</v>
@@ -11702,7 +11702,7 @@
         <v>413</v>
       </c>
       <c r="I231">
-        <v>0.0009241875162358157</v>
+        <v>0.0009241875162358158</v>
       </c>
       <c r="J231" t="s">
         <v>929</v>
@@ -12151,7 +12151,7 @@
         <v>415</v>
       </c>
       <c r="I244">
-        <v>0.09212049883428418</v>
+        <v>0.09212049883428416</v>
       </c>
       <c r="J244" t="s">
         <v>935</v>
@@ -12186,7 +12186,7 @@
         <v>415</v>
       </c>
       <c r="I245">
-        <v>0.08130371774365479</v>
+        <v>0.08130371774365477</v>
       </c>
       <c r="J245" t="s">
         <v>936</v>
@@ -12221,7 +12221,7 @@
         <v>415</v>
       </c>
       <c r="I246">
-        <v>0.03212325106445027</v>
+        <v>0.03212325106445026</v>
       </c>
       <c r="J246" t="s">
         <v>849</v>
@@ -12326,7 +12326,7 @@
         <v>415</v>
       </c>
       <c r="I249">
-        <v>0.008813984775708546</v>
+        <v>0.008813984775708545</v>
       </c>
       <c r="J249" t="s">
         <v>831</v>
@@ -12361,7 +12361,7 @@
         <v>415</v>
       </c>
       <c r="I250">
-        <v>0.007202658123103947</v>
+        <v>0.007202658123103946</v>
       </c>
       <c r="J250" t="s">
         <v>939</v>
@@ -12501,7 +12501,7 @@
         <v>416</v>
       </c>
       <c r="I254">
-        <v>0.0439249016438447</v>
+        <v>0.04392490164384469</v>
       </c>
       <c r="J254" t="s">
         <v>825</v>
@@ -13670,7 +13670,7 @@
         <v>419</v>
       </c>
       <c r="D288">
-        <v>4061795.466327689</v>
+        <v>4061795.46632769</v>
       </c>
       <c r="E288">
         <v>850440</v>
@@ -13880,7 +13880,7 @@
         <v>420</v>
       </c>
       <c r="D294">
-        <v>976626.4024999324</v>
+        <v>976626.4024999326</v>
       </c>
       <c r="E294">
         <v>847290</v>
@@ -13895,7 +13895,7 @@
         <v>420</v>
       </c>
       <c r="I294">
-        <v>0.04335968608779518</v>
+        <v>0.04335968608779519</v>
       </c>
       <c r="J294" t="s">
         <v>958</v>
@@ -14869,13 +14869,13 @@
         <v>596</v>
       </c>
       <c r="G322">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H322" t="s">
         <v>423</v>
       </c>
       <c r="I322">
-        <v>0.07969419581293882</v>
+        <v>0.0796941958129388</v>
       </c>
       <c r="J322" t="s">
         <v>878</v>
@@ -14904,13 +14904,13 @@
         <v>662</v>
       </c>
       <c r="G323">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H323" t="s">
         <v>423</v>
       </c>
       <c r="I323">
-        <v>0.03764138260947469</v>
+        <v>0.03764138260947468</v>
       </c>
       <c r="J323" t="s">
         <v>957</v>
@@ -14939,13 +14939,13 @@
         <v>679</v>
       </c>
       <c r="G324">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H324" t="s">
         <v>423</v>
       </c>
       <c r="I324">
-        <v>0.03677813297112283</v>
+        <v>0.03677813297112282</v>
       </c>
       <c r="J324" t="s">
         <v>970</v>
@@ -14974,13 +14974,13 @@
         <v>593</v>
       </c>
       <c r="G325">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H325" t="s">
         <v>423</v>
       </c>
       <c r="I325">
-        <v>0.03212733723091427</v>
+        <v>0.03212733723091426</v>
       </c>
       <c r="J325" t="s">
         <v>878</v>
@@ -15009,13 +15009,13 @@
         <v>463</v>
       </c>
       <c r="G326">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H326" t="s">
         <v>423</v>
       </c>
       <c r="I326">
-        <v>0.02717649309465261</v>
+        <v>0.0271764930946526</v>
       </c>
       <c r="J326" t="s">
         <v>831</v>
@@ -15044,13 +15044,13 @@
         <v>680</v>
       </c>
       <c r="G327">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H327" t="s">
         <v>423</v>
       </c>
       <c r="I327">
-        <v>0.02489722479861323</v>
+        <v>0.02489722479861322</v>
       </c>
       <c r="J327" t="s">
         <v>971</v>
@@ -15079,13 +15079,13 @@
         <v>681</v>
       </c>
       <c r="G328">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H328" t="s">
         <v>423</v>
       </c>
       <c r="I328">
-        <v>0.01952836368779608</v>
+        <v>0.01952836368779607</v>
       </c>
       <c r="J328" t="s">
         <v>825</v>
@@ -15114,7 +15114,7 @@
         <v>682</v>
       </c>
       <c r="G329">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H329" t="s">
         <v>423</v>
@@ -15149,7 +15149,7 @@
         <v>683</v>
       </c>
       <c r="G330">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H330" t="s">
         <v>423</v>
@@ -15184,7 +15184,7 @@
         <v>458</v>
       </c>
       <c r="G331">
-        <v>209953265.3888359</v>
+        <v>209953265.388836</v>
       </c>
       <c r="H331" t="s">
         <v>423</v>
@@ -15210,7 +15210,7 @@
         <v>424</v>
       </c>
       <c r="D332">
-        <v>2045478.716052078</v>
+        <v>2045478.716052077</v>
       </c>
       <c r="E332">
         <v>851521</v>
@@ -15225,7 +15225,7 @@
         <v>424</v>
       </c>
       <c r="I332">
-        <v>0.02721358751447512</v>
+        <v>0.02721358751447511</v>
       </c>
       <c r="J332" t="s">
         <v>973</v>
@@ -15490,7 +15490,7 @@
         <v>424</v>
       </c>
       <c r="D340">
-        <v>757215.5858984704</v>
+        <v>757215.5858984702</v>
       </c>
       <c r="E340">
         <v>845710</v>
@@ -15980,7 +15980,7 @@
         <v>426</v>
       </c>
       <c r="D354">
-        <v>9363445.533203373</v>
+        <v>9363445.533203371</v>
       </c>
       <c r="E354">
         <v>847780</v>
@@ -15995,7 +15995,7 @@
         <v>426</v>
       </c>
       <c r="I354">
-        <v>0.04641434849728213</v>
+        <v>0.04641434849728212</v>
       </c>
       <c r="J354" t="s">
         <v>878</v>
@@ -16619,7 +16619,7 @@
         <v>428</v>
       </c>
       <c r="I372">
-        <v>0.07013484986940309</v>
+        <v>0.07013484986940308</v>
       </c>
       <c r="J372" t="s">
         <v>985</v>
@@ -16654,7 +16654,7 @@
         <v>428</v>
       </c>
       <c r="I373">
-        <v>0.0696499731564852</v>
+        <v>0.06964997315648519</v>
       </c>
       <c r="J373" t="s">
         <v>849</v>
@@ -16674,7 +16674,7 @@
         <v>428</v>
       </c>
       <c r="D374">
-        <v>376298.8139267587</v>
+        <v>376298.8139267588</v>
       </c>
       <c r="E374">
         <v>841780</v>
@@ -16689,7 +16689,7 @@
         <v>428</v>
       </c>
       <c r="I374">
-        <v>0.02136041552058026</v>
+        <v>0.02136041552058027</v>
       </c>
       <c r="J374" t="s">
         <v>825</v>
@@ -16919,7 +16919,7 @@
         <v>428</v>
       </c>
       <c r="D381">
-        <v>78964.57726623831</v>
+        <v>78964.5772662383</v>
       </c>
       <c r="E381">
         <v>730300</v>
@@ -16934,7 +16934,7 @@
         <v>428</v>
       </c>
       <c r="I381">
-        <v>0.004482385060459191</v>
+        <v>0.00448238506045919</v>
       </c>
       <c r="J381" t="s">
         <v>987</v>
@@ -17584,7 +17584,7 @@
         <v>430</v>
       </c>
       <c r="D400">
-        <v>2062587.138114381</v>
+        <v>2062587.13811438</v>
       </c>
       <c r="E400">
         <v>844120</v>
@@ -18208,7 +18208,7 @@
         <v>432</v>
       </c>
       <c r="D418">
-        <v>485928.3682537954</v>
+        <v>485928.3682537955</v>
       </c>
       <c r="E418">
         <v>845221</v>
@@ -19118,7 +19118,7 @@
         <v>435</v>
       </c>
       <c r="D444">
-        <v>782923.9092050204</v>
+        <v>782923.9092050205</v>
       </c>
       <c r="E444">
         <v>940320</v>
@@ -19133,7 +19133,7 @@
         <v>435</v>
       </c>
       <c r="I444">
-        <v>0.01426818982243579</v>
+        <v>0.0142681898224358</v>
       </c>
       <c r="J444" t="s">
         <v>862</v>
@@ -19952,7 +19952,7 @@
         <v>437</v>
       </c>
       <c r="D468">
-        <v>3688447.790072015</v>
+        <v>3688447.790072016</v>
       </c>
       <c r="E468">
         <v>842951</v>
@@ -20162,7 +20162,7 @@
         <v>438</v>
       </c>
       <c r="D474">
-        <v>8123163.498331956</v>
+        <v>8123163.498331955</v>
       </c>
       <c r="E474">
         <v>870410</v>
@@ -20527,7 +20527,7 @@
         <v>439</v>
       </c>
       <c r="I484">
-        <v>0.0390896816992159</v>
+        <v>0.03908968169921589</v>
       </c>
       <c r="J484" t="s">
         <v>831</v>
@@ -20632,7 +20632,7 @@
         <v>439</v>
       </c>
       <c r="I487">
-        <v>0.0292607453313392</v>
+        <v>0.02926074533133919</v>
       </c>
       <c r="J487" t="s">
         <v>824</v>
@@ -20702,7 +20702,7 @@
         <v>439</v>
       </c>
       <c r="I489">
-        <v>0.02536753260551298</v>
+        <v>0.02536753260551297</v>
       </c>
       <c r="J489" t="s">
         <v>837</v>
@@ -20737,7 +20737,7 @@
         <v>439</v>
       </c>
       <c r="I490">
-        <v>0.02463240621092792</v>
+        <v>0.02463240621092791</v>
       </c>
       <c r="J490" t="s">
         <v>1019</v>
@@ -21002,7 +21002,7 @@
         <v>440</v>
       </c>
       <c r="D498">
-        <v>9.833120099842366</v>
+        <v>9.833120099842363</v>
       </c>
       <c r="E498">
         <v>860400</v>
@@ -21017,7 +21017,7 @@
         <v>440</v>
       </c>
       <c r="I498">
-        <v>5.355197862143392E-07</v>
+        <v>5.35519786214339E-07</v>
       </c>
       <c r="J498" t="s">
         <v>1024</v>
@@ -21037,7 +21037,7 @@
         <v>440</v>
       </c>
       <c r="D499">
-        <v>0.02563750546870879</v>
+        <v>0.02563750546870671</v>
       </c>
       <c r="E499">
         <v>842720</v>
@@ -21052,7 +21052,7 @@
         <v>440</v>
       </c>
       <c r="I499">
-        <v>1.396239576885874E-09</v>
+        <v>1.39623957688576E-09</v>
       </c>
       <c r="J499" t="s">
         <v>1025</v>
@@ -21247,7 +21247,7 @@
         <v>441</v>
       </c>
       <c r="D505">
-        <v>230938987.214885</v>
+        <v>230938987.2148851</v>
       </c>
       <c r="E505">
         <v>847130</v>
@@ -21262,7 +21262,7 @@
         <v>441</v>
       </c>
       <c r="I505">
-        <v>0.02515367985486007</v>
+        <v>0.02515367985486008</v>
       </c>
       <c r="J505" t="s">
         <v>1027</v>
@@ -21632,7 +21632,7 @@
         <v>442</v>
       </c>
       <c r="D516">
-        <v>777866.8249384778</v>
+        <v>777866.8249384779</v>
       </c>
       <c r="E516">
         <v>851762</v>
@@ -21647,7 +21647,7 @@
         <v>442</v>
       </c>
       <c r="I516">
-        <v>0.004841910942906501</v>
+        <v>0.004841910942906502</v>
       </c>
       <c r="J516" t="s">
         <v>1030</v>
